--- a/back-end/excelSheets/excelFormats/book_chapter.xlsx
+++ b/back-end/excelSheets/excelFormats/book_chapter.xlsx
@@ -642,7 +642,7 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
